--- a/01_data-input/National/KS/NEET.xlsx
+++ b/01_data-input/National/KS/NEET.xlsx
@@ -14,63 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <x:si>
-    <x:t>Youth not in education, employment or training (NEET) by sex, age 15-24 by Kosovo, Year and Sex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <x:si>
+    <x:t>Youth not in education, employment or training (NEET) by sex, age 15-24 by sex, Kosovo and year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youth NEET ('000s)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  Youth NEET share of youth population (%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019</x:t>
   </x:si>
   <x:si>
     <x:t>2020</x:t>
   </x:si>
   <x:si>
-    <x:t>2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Female</x:t>
-  </x:si>
-  <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>Youth NEET ('000s)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>: There is no data</x:t>
-  </x:si>
-  <x:si>
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20230831 00:00</x:t>
+    <x:t>20211101 00:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -82,10 +70,13 @@
     <x:t>Contact:</x:t>
   </x:si>
   <x:si>
-    <x:t>Email: infoask@rks-gov.net</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tel: (+381) 038 200 31 129</x:t>
+    <x:t>Bujar Hajrizi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sector chief</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bujar.r.hajrizi@rks-gov.net</x:t>
   </x:si>
   <x:si>
     <x:t>Units:</x:t>
@@ -104,9 +95,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="2">
+  <x:numFmts count="3">
     <x:numFmt numFmtId="0" formatCode=""/>
     <x:numFmt numFmtId="165" formatCode="0.000"/>
+    <x:numFmt numFmtId="166" formatCode="0.0"/>
   </x:numFmts>
   <x:fonts count="3">
     <x:font>
@@ -160,7 +152,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -173,8 +165,11 @@
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -188,6 +183,10 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -486,318 +485,201 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AH32"/>
+  <x:dimension ref="A1:S32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="34" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="19" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:34">
+    <x:row r="1" spans="1:19">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:34">
+    <x:row r="3" spans="1:19">
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E3" s="2" t="s">
+      <x:c r="K3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="H3" s="2" t="s">
+    </x:row>
+    <x:row r="4" spans="1:19">
+      <x:c r="B4" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="K3" s="2" t="s">
+      <x:c r="C4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="N3" s="2" t="s">
+      <x:c r="D4" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="Q3" s="2" t="s">
+      <x:c r="E4" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="T3" s="2" t="s">
+      <x:c r="F4" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="W3" s="2" t="s">
+      <x:c r="G4" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="Z3" s="2" t="s">
+      <x:c r="H4" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="AC3" s="2" t="s">
+      <x:c r="I4" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="AF3" s="2" t="s">
+      <x:c r="J4" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:34">
-      <x:c r="B4" s="2" t="s">
+      <x:c r="K4" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L4" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="M4" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="N4" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="O4" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="P4" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="Q4" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="R4" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="S4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:19">
+      <x:c r="A5" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E4" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G4" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H4" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="I4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="J4" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="K4" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="L4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="M4" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="N4" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="O4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="P4" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="Q4" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="R4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="S4" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="T4" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="U4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="V4" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="W4" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="X4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="Y4" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="Z4" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AA4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="AB4" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="AC4" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AD4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="AE4" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="AF4" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AG4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="AH4" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:34">
-      <x:c r="A5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>49.665</x:v>
+        <x:v>126.217</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
-        <x:v>49.04</x:v>
+        <x:v>124.543</x:v>
       </x:c>
       <x:c r="D5" s="3" t="n">
-        <x:v>98.705</x:v>
+        <x:v>108.19</x:v>
       </x:c>
       <x:c r="E5" s="3" t="n">
-        <x:v>53.851</x:v>
+        <x:v>107.628</x:v>
       </x:c>
       <x:c r="F5" s="3" t="n">
-        <x:v>51.281</x:v>
+        <x:v>103.843</x:v>
       </x:c>
       <x:c r="G5" s="3" t="n">
-        <x:v>105.132</x:v>
+        <x:v>94.815</x:v>
       </x:c>
       <x:c r="H5" s="3" t="n">
-        <x:v>59.401</x:v>
+        <x:v>101.612</x:v>
       </x:c>
       <x:c r="I5" s="3" t="n">
-        <x:v>53.534</x:v>
+        <x:v>111.064</x:v>
       </x:c>
       <x:c r="J5" s="3" t="n">
         <x:v>112.936</x:v>
       </x:c>
-      <x:c r="K5" s="3" t="n">
-        <x:v>56.035</x:v>
-      </x:c>
-      <x:c r="L5" s="3" t="n">
-        <x:v>55.029</x:v>
-      </x:c>
-      <x:c r="M5" s="3" t="n">
-        <x:v>111.064</x:v>
-      </x:c>
-      <x:c r="N5" s="3" t="n">
-        <x:v>53.439</x:v>
-      </x:c>
-      <x:c r="O5" s="3" t="n">
-        <x:v>48.173</x:v>
-      </x:c>
-      <x:c r="P5" s="3" t="n">
-        <x:v>101.612</x:v>
-      </x:c>
-      <x:c r="Q5" s="3" t="n">
-        <x:v>43.019</x:v>
-      </x:c>
-      <x:c r="R5" s="3" t="n">
-        <x:v>51.796</x:v>
-      </x:c>
-      <x:c r="S5" s="3" t="n">
-        <x:v>94.815</x:v>
-      </x:c>
-      <x:c r="T5" s="3" t="n">
-        <x:v>48.278</x:v>
-      </x:c>
-      <x:c r="U5" s="3" t="n">
-        <x:v>55.565</x:v>
-      </x:c>
-      <x:c r="V5" s="3" t="n">
-        <x:v>103.843</x:v>
-      </x:c>
-      <x:c r="W5" s="3" t="n">
-        <x:v>51.025</x:v>
-      </x:c>
-      <x:c r="X5" s="3" t="n">
-        <x:v>56.603</x:v>
-      </x:c>
-      <x:c r="Y5" s="3" t="n">
-        <x:v>107.628</x:v>
-      </x:c>
-      <x:c r="Z5" s="3" t="n">
-        <x:v>49.77</x:v>
-      </x:c>
-      <x:c r="AA5" s="3" t="n">
-        <x:v>58.421</x:v>
-      </x:c>
-      <x:c r="AB5" s="3" t="n">
-        <x:v>108.19</x:v>
-      </x:c>
-      <x:c r="AC5" s="3" t="n">
-        <x:v>55.012</x:v>
-      </x:c>
-      <x:c r="AD5" s="3" t="n">
-        <x:v>69.531</x:v>
-      </x:c>
-      <x:c r="AE5" s="3" t="n">
-        <x:v>124.543</x:v>
-      </x:c>
-      <x:c r="AF5" s="3" t="n">
-        <x:v>58.346</x:v>
-      </x:c>
-      <x:c r="AG5" s="3" t="n">
-        <x:v>67.871</x:v>
-      </x:c>
-      <x:c r="AH5" s="3" t="n">
-        <x:v>126.217</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:34">
-      <x:c r="A7" s="0" t="s">
+      <x:c r="K5" s="4" t="n">
+        <x:v>35.1</x:v>
+      </x:c>
+      <x:c r="L5" s="4" t="n">
+        <x:v>35.3</x:v>
+      </x:c>
+      <x:c r="M5" s="4" t="n">
+        <x:v>30.2</x:v>
+      </x:c>
+      <x:c r="N5" s="4" t="n">
+        <x:v>31.4</x:v>
+      </x:c>
+      <x:c r="O5" s="4" t="n">
+        <x:v>30.1</x:v>
+      </x:c>
+      <x:c r="P5" s="4" t="n">
+        <x:v>27.4</x:v>
+      </x:c>
+      <x:c r="Q5" s="4" t="n">
+        <x:v>30.1</x:v>
+      </x:c>
+      <x:c r="R5" s="4" t="n">
+        <x:v>32.7</x:v>
+      </x:c>
+      <x:c r="S5" s="4" t="n">
+        <x:v>33.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:19">
+      <x:c r="A8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:19">
+      <x:c r="A9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:19">
+      <x:c r="A11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:19">
+      <x:c r="A12" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:34">
-      <x:c r="A9" s="0" t="s">
+    <x:row r="14" spans="1:19">
+      <x:c r="A14" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:34">
-      <x:c r="A10" s="0" t="s">
+    <x:row r="15" spans="1:19">
+      <x:c r="A15" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:34">
-      <x:c r="A12" s="0" t="s">
+    <x:row r="16" spans="1:19">
+      <x:c r="A16" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:34">
-      <x:c r="A13" s="0" t="s">
+    <x:row r="17" spans="1:19">
+      <x:c r="A17" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:34">
-      <x:c r="A15" s="0" t="s">
+    <x:row r="20" spans="1:19">
+      <x:c r="A20" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:34">
-      <x:c r="A16" s="0" t="s">
+    <x:row r="21" spans="1:19">
+      <x:c r="A21" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:34">
-      <x:c r="A17" s="0" t="s">
+    <x:row r="31" spans="1:19">
+      <x:c r="A31" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:34">
-      <x:c r="A20" s="0" t="s">
+    <x:row r="32" spans="1:19">
+      <x:c r="A32" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:34">
-      <x:c r="A21" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:34">
-      <x:c r="A31" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:34">
-      <x:c r="A32" s="0" t="s">
-        <x:v>27</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
